--- a/Documents/Examples/Observational/observational.xlsx
+++ b/Documents/Examples/Observational/observational.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632B598-2A24-7841-8147-9FED62F04FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533B4F6-922F-4B47-BB81-3752C2062234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="49340" windowHeight="27260" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="49340" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="786">
   <si>
     <t>Screening</t>
   </si>
@@ -2408,6 +2408,18 @@
   </si>
   <si>
     <t>Equal Probability Sampling Method</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
   </si>
 </sst>
 </file>
@@ -2637,14 +2649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5013,122 +5025,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8649,10 +8685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8703,10 +8739,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -9046,7 +9082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
@@ -9202,12 +9238,12 @@
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>777</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -9307,12 +9343,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -9324,6 +9354,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
